--- a/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Zusammenstellung_Doku.xlsx
+++ b/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Zusammenstellung_Doku.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st1172355\Documents\GitHub\CodeBTh04\arbeitspakete\01_klassifizierung\02_Datenerkundung\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790D699D-FE9A-4503-99D4-4614DD46566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12F6BC7-C85F-4C8C-8D9E-4ADB8F1F24B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Bäume</t>
   </si>
@@ -214,6 +225,9 @@
   </si>
   <si>
     <t>44.1 ± 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farbton (0-360°) </t>
   </si>
 </sst>
 </file>
@@ -528,10 +542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,10 +563,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,7 +1235,6 @@
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
       <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1255,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1267,7 +1278,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -1290,7 +1301,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -1313,7 +1324,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -1336,7 +1347,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -1359,7 +1370,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -1382,7 +1393,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -1405,7 +1416,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -1424,6 +1435,211 @@
         <v>61</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="9">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5">
+        <v>110.7</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5">
+        <v>220.1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5">
+        <v>147.5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="20">
+        <v>121</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5">
+        <v>185.8</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="5">
+        <v>234.5</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="7">
+        <v>208</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>62</v>
       </c>
     </row>

--- a/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Zusammenstellung_Doku.xlsx
+++ b/arbeitspakete/01_klassifizierung/02_Datenerkundung/output/Zusammenstellung_Doku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st1172355\Documents\GitHub\CodeBTh04\arbeitspakete\01_klassifizierung\02_Datenerkundung\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12F6BC7-C85F-4C8C-8D9E-4ADB8F1F24B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A629FE26-4236-44A1-AEBF-035516B6A3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>Bäume</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">Farbton (0-360°) </t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +257,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -496,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -545,7 +560,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -831,21 +891,21 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
@@ -865,7 +925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -888,7 +948,7 @@
         <v>19.36517976377408</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -911,7 +971,7 @@
         <v>7.272329912571962</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -934,7 +994,7 @@
         <v>39.663617227246753</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -957,7 +1017,7 @@
         <v>7.3057841480475476</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -980,7 +1040,7 @@
         <v>30.979060769890371</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1063,7 @@
         <v>5.5708897479809112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1086,7 @@
         <v>28.187015208770021</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1109,7 @@
         <v>6.225694318815358</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1132,7 @@
         <v>30.065912558215061</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1155,7 @@
         <v>4.0363239720727728</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1178,7 @@
         <v>47.627915897991997</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1201,7 @@
         <v>8.5607778846484823</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1224,7 @@
         <v>37.60795285415702</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1247,7 @@
         <v>5.358138248233284</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1270,7 @@
         <v>44.122120495098628</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1233,8 +1293,8 @@
         <v>5.3172112059698478</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
@@ -1369,7 +1429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>7</v>
       </c>
@@ -1438,208 +1498,211 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="24">
         <v>141.80000000000001</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="27">
         <v>110.7</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="27">
         <v>220.1</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="27">
         <v>147.5</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="29">
         <v>121</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="27">
         <v>185.8</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="27">
         <v>234.5</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="31">
         <v>208</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="32" t="s">
         <v>62</v>
       </c>
     </row>
